--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -442,81 +442,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de AIG</t>
+          <t>Precio inicio Septiembre de AAPL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.75</v>
+        <v>132.759995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de AIG</t>
+          <t>Precio fin Septiembre de AAPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.35</v>
+        <v>113.790001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de AIG</t>
+          <t>Precio inicio Octubre de AAPL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.73</v>
+        <v>117.639999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de AIG</t>
+          <t>Precio fin Octubre de AAPL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.65000000000001</v>
+        <v>111.059998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de BA</t>
+          <t>Precio inicio Septiembre de AMD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.65000000000001</v>
+        <v>91.91999799999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de BA</t>
+          <t>Precio fin Septiembre de AMD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.15000000000001</v>
+        <v>81.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de BA</t>
+          <t>Precio inicio Octubre de AMD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.92</v>
+        <v>83.05999799999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de BA</t>
+          <t>Precio fin Octubre de AMD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.8</v>
+        <v>77.089996</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>En Septiembre crecio mas la accion: AIG</t>
+          <t>En Septiembre bajo mas la accion: AAPL</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>En Octubre creio mas la accion: AIG</t>
+          <t>En Octubre bajo mas la accion: AAPL</t>
         </is>
       </c>
     </row>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -442,81 +442,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de AAPL</t>
+          <t>Precio inicio Septiembre de HPQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.759995</v>
+        <v>19.530001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de AAPL</t>
+          <t>Precio fin Septiembre de HPQ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.790001</v>
+        <v>18.879999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de AAPL</t>
+          <t>Precio inicio Octubre de HPQ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.639999</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de AAPL</t>
+          <t>Precio fin Octubre de HPQ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.059998</v>
+        <v>17.629999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Septiembre de AMD</t>
+          <t>Precio inicio Septiembre de IBM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.91999799999999</v>
+        <v>122.849998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Septiembre de AMD</t>
+          <t>Precio fin Septiembre de IBM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.75</v>
+        <v>121.379997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Precio inicio Octubre de AMD</t>
+          <t>Precio inicio Octubre de IBM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.05999799999999</v>
+        <v>122.360001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Precio fin Octubre de AMD</t>
+          <t>Precio fin Octubre de IBM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.089996</v>
+        <v>107.900002</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>En Septiembre bajo mas la accion: AAPL</t>
+          <t>En Septiembre bajo mas la accion: IBM</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>En Octubre bajo mas la accion: AAPL</t>
+          <t>En Octubre bajo mas la accion: IBM</t>
         </is>
       </c>
     </row>
